--- a/diagram_data/2005_diagram_data.xlsx
+++ b/diagram_data/2005_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,342 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P24_Baker &amp; Nelson_2005_ASQ_Creating Something from Nothing.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P4_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F2_P14_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P15_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F4_P15_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P19_Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P16_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2005/F1_P14_Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
